--- a/python/output/Begusarai/Begusarai_2025-05-09_21081110000053.xlsx
+++ b/python/output/Begusarai/Begusarai_2025-05-09_21081110000053.xlsx
@@ -640,7 +640,7 @@
       <c r="H6" s="5" t="n"/>
       <c r="I6" s="4" t="inlineStr">
         <is>
-          <t>INVOICE NO: 1076
+          <t>INVOICE NO: 1162
 DELIVERY DATE: 09-05-2025
 VENDOR CODE: 198049
 SITE CODE: ES20</t>
